--- a/Component Library.xlsx
+++ b/Component Library.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="390">
   <si>
     <t>Construct Hour</t>
   </si>
@@ -253,9 +253,6 @@
     <t>GradColor</t>
   </si>
   <si>
-    <t>Assigns a color value for each hour given, based on a given key and doman, using a single-interpolation gradient between two given colors.</t>
-  </si>
-  <si>
     <t>Decorate</t>
   </si>
   <si>
@@ -751,9 +748,6 @@
     <t>CondFilter</t>
   </si>
   <si>
-    <t>Filters a given set of Dhours through a conditional satement.\nOnly those hours that satisfy this condition are returned</t>
-  </si>
-  <si>
     <t>The key to test</t>
   </si>
   <si>
@@ -778,9 +772,6 @@
     <t>SunPos</t>
   </si>
   <si>
-    <t>Assigns a position on a Sunchart Graph for each hour given, based on a given solar alt and azimuth key</t>
-  </si>
-  <si>
     <t>Spatialize</t>
   </si>
   <si>
@@ -925,9 +916,6 @@
     <t>HeatMap</t>
   </si>
   <si>
-    <t>Assigns a position on a Heatmap Graph for each hour given</t>
-  </si>
-  <si>
     <t>The dimensions of the resulting graph</t>
   </si>
   <si>
@@ -949,9 +937,6 @@
     <t>Histogram</t>
   </si>
   <si>
-    <t>Assigns a position on a Histogram Graph for each hour given.  Hours are depicted as rectangles stacked according to pre-defined intervals.\nNote that a tree of Dhours is expected.\nUse the Hour Frequency component to prepare data for this component</t>
-  </si>
-  <si>
     <t>The dimensions of the resulting graph.\nNote that the y-dimension scales to the longest list of given hours.</t>
   </si>
   <si>
@@ -1181,13 +1166,32 @@
   </si>
   <si>
     <t>output</t>
+  </si>
+  <si>
+    <t>Colorize</t>
+  </si>
+  <si>
+    <t>Assigns a color value for each hour given, based on a given key and domain, using a single-interpolation gradient between two given colors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filters a given set of Dhours through a conditional statement. Only those hours that satisfy this condition are returned.
+</t>
+  </si>
+  <si>
+    <t>Assigns a position on a Sunchart Graph for each hour given, based on a given solar altitude and azimuth key.</t>
+  </si>
+  <si>
+    <t>Assigns a position on a Heatmap Graph for each hour given.</t>
+  </si>
+  <si>
+    <t>Assigns a position on a Histogram Graph for each hour given.  Hours are depicted as rectangles stacked according to predefined intervals.\nNote that a tree of Dhours is expected.\nUse the Hour Frequency component to prepare data for this component.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1319,6 +1323,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1665,7 +1677,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1675,6 +1687,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2017,14 +2030,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I244"/>
+  <dimension ref="A1:I245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A197" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I227" sqref="I227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" customWidth="1"/>
@@ -2034,1093 +2048,1084 @@
     <col min="10" max="10" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>387</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2">
-        <v>-1</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>387</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
+      <c r="H3">
+        <v>-1</v>
+      </c>
       <c r="I3" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>387</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>387</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>387</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>387</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>31</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>32</v>
       </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="4" t="s">
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>388</v>
-      </c>
-      <c r="D11" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>383</v>
+      </c>
+      <c r="D12" t="s">
         <v>5</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>6</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>7</v>
       </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="4" t="s">
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>388</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>383</v>
+      </c>
+      <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>10</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>388</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>383</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>388</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>383</v>
+      </c>
+      <c r="D15" t="s">
         <v>17</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>19</v>
       </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="4" t="s">
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>388</v>
-      </c>
-      <c r="D15" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>383</v>
+      </c>
+      <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>22</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>23</v>
       </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="4" t="s">
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+    <row r="18" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>387</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
         <v>8</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s">
         <v>8</v>
       </c>
       <c r="I21" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>383</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+    <row r="24" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>387</v>
-      </c>
-      <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
       </c>
       <c r="E26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>383</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
         <v>63</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
         <v>64</v>
       </c>
-      <c r="G26" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="4" t="s">
+      <c r="G27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+    <row r="29" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>387</v>
-      </c>
-      <c r="D29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>383</v>
+      </c>
+      <c r="D31" t="s">
         <v>17</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>18</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>19</v>
       </c>
-      <c r="G30" t="s">
-        <v>34</v>
-      </c>
-      <c r="I30" s="4" t="s">
+      <c r="G31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+    <row r="33" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>387</v>
-      </c>
-      <c r="D33" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>382</v>
+      </c>
+      <c r="D34" t="s">
         <v>25</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>31</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
         <v>32</v>
       </c>
-      <c r="G33" t="s">
-        <v>34</v>
-      </c>
-      <c r="I33" s="4" t="s">
+      <c r="G34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>388</v>
-      </c>
-      <c r="D34" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>383</v>
+      </c>
+      <c r="D35" t="s">
         <v>21</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" t="s">
         <v>75</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" t="s">
         <v>23</v>
       </c>
-      <c r="G34" t="s">
-        <v>34</v>
-      </c>
-      <c r="I34" s="4" t="s">
+      <c r="G35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
+    <row r="36" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D36" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
+    <row r="37" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>382</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>387</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F37" t="s">
-        <v>58</v>
-      </c>
-      <c r="G37" t="s">
-        <v>8</v>
-      </c>
-      <c r="I37" s="4" t="s">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>382</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>387</v>
-      </c>
-      <c r="D38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" t="s">
-        <v>44</v>
-      </c>
-      <c r="G38" t="s">
-        <v>34</v>
-      </c>
-      <c r="I38" s="4" t="s">
+    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>382</v>
+      </c>
+      <c r="D40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>387</v>
-      </c>
-      <c r="D39" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="F40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F39" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39" t="s">
-        <v>34</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>387</v>
-      </c>
-      <c r="D40" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" t="s">
-        <v>85</v>
-      </c>
-      <c r="F40" t="s">
-        <v>86</v>
-      </c>
-      <c r="G40" t="s">
-        <v>34</v>
-      </c>
-      <c r="H40" t="s">
-        <v>88</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F41" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G41" t="s">
         <v>34</v>
       </c>
+      <c r="H41" t="s">
+        <v>87</v>
+      </c>
       <c r="I41" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D42" t="s">
         <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F42" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" t="s">
+        <v>93</v>
+      </c>
+      <c r="I43" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G42" t="s">
-        <v>34</v>
-      </c>
-      <c r="H42" t="s">
-        <v>94</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>388</v>
-      </c>
-      <c r="D43" t="s">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>383</v>
+      </c>
+      <c r="D44" t="s">
         <v>25</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>57</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F44" t="s">
         <v>58</v>
-      </c>
-      <c r="G43" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>388</v>
-      </c>
-      <c r="D44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" t="s">
-        <v>96</v>
-      </c>
-      <c r="F44" t="s">
-        <v>97</v>
       </c>
       <c r="G44" t="s">
         <v>8</v>
       </c>
       <c r="I44" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>383</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" t="s">
+        <v>95</v>
+      </c>
+      <c r="F45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G45" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="2" t="s">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>382</v>
+      </c>
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" t="s">
+        <v>58</v>
+      </c>
+      <c r="G48" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I46" s="3" t="s">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>382</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>387</v>
-      </c>
-      <c r="D47" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F47" t="s">
-        <v>58</v>
-      </c>
-      <c r="G47" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>387</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="F49" t="s">
+        <v>101</v>
+      </c>
+      <c r="G49" t="s">
+        <v>34</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>382</v>
+      </c>
+      <c r="D50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50" t="s">
+        <v>34</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>382</v>
+      </c>
+      <c r="D51" t="s">
         <v>9</v>
       </c>
-      <c r="E48" t="s">
-        <v>102</v>
-      </c>
-      <c r="F48" t="s">
-        <v>102</v>
-      </c>
-      <c r="G48" t="s">
-        <v>34</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>387</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E51" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51" t="s">
+        <v>106</v>
+      </c>
+      <c r="G51" t="s">
+        <v>34</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>382</v>
+      </c>
+      <c r="D52" t="s">
         <v>50</v>
       </c>
-      <c r="E49" t="s">
-        <v>104</v>
-      </c>
-      <c r="F49" t="s">
-        <v>105</v>
-      </c>
-      <c r="G49" t="s">
-        <v>34</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>387</v>
-      </c>
-      <c r="D50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" t="s">
-        <v>107</v>
-      </c>
-      <c r="F50" t="s">
-        <v>107</v>
-      </c>
-      <c r="G50" t="s">
-        <v>34</v>
-      </c>
-      <c r="I50" s="4" t="s">
+      <c r="E52" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="51" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>387</v>
-      </c>
-      <c r="D51" t="s">
-        <v>50</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="F52" t="s">
         <v>109</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G52" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G51" t="s">
-        <v>34</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>387</v>
-      </c>
-      <c r="D52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" t="s">
-        <v>112</v>
-      </c>
-      <c r="F52" t="s">
-        <v>113</v>
-      </c>
-      <c r="G52" t="s">
-        <v>34</v>
-      </c>
-      <c r="H52" t="s">
-        <v>115</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D53" t="s">
         <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F53" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G53" t="s">
         <v>34</v>
       </c>
       <c r="H53" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
       </c>
       <c r="E54" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F54" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G54" t="s">
         <v>34</v>
       </c>
       <c r="H54" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D55" t="s">
         <v>17</v>
       </c>
       <c r="E55" t="s">
+        <v>119</v>
+      </c>
+      <c r="F55" t="s">
+        <v>120</v>
+      </c>
+      <c r="G55" t="s">
+        <v>34</v>
+      </c>
+      <c r="H55" t="s">
+        <v>122</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>382</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" t="s">
+        <v>123</v>
+      </c>
+      <c r="F56" t="s">
         <v>124</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G56" t="s">
+        <v>34</v>
+      </c>
+      <c r="H56" t="s">
+        <v>87</v>
+      </c>
+      <c r="I56" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G55" t="s">
-        <v>34</v>
-      </c>
-      <c r="H55" t="s">
-        <v>88</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
-        <v>388</v>
-      </c>
-      <c r="D56" t="s">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>383</v>
+      </c>
+      <c r="D57" t="s">
         <v>25</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>57</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F57" t="s">
         <v>58</v>
-      </c>
-      <c r="G56" t="s">
-        <v>8</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
-        <v>388</v>
-      </c>
-      <c r="D57" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" t="s">
-        <v>96</v>
-      </c>
-      <c r="F57" t="s">
-        <v>97</v>
       </c>
       <c r="G57" t="s">
         <v>8</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>383</v>
+      </c>
       <c r="D58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" t="s">
+        <v>95</v>
+      </c>
+      <c r="F58" t="s">
+        <v>96</v>
+      </c>
+      <c r="G58" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
+    <row r="60" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="F60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I60" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="2" t="s">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>382</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" t="s">
         <v>130</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>387</v>
-      </c>
-      <c r="D60" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F60" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" t="s">
-        <v>8</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
-        <v>387</v>
-      </c>
-      <c r="D61" t="s">
-        <v>25</v>
-      </c>
-      <c r="E61" t="s">
-        <v>31</v>
-      </c>
-      <c r="F61" t="s">
-        <v>32</v>
-      </c>
-      <c r="G61" t="s">
-        <v>34</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D62" t="s">
         <v>25</v>
@@ -3135,54 +3140,54 @@
         <v>34</v>
       </c>
       <c r="I62" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>383</v>
+      </c>
+      <c r="D63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" t="s">
+        <v>31</v>
+      </c>
+      <c r="F63" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" t="s">
+        <v>34</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B64" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="F65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I65" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
-        <v>387</v>
-      </c>
-      <c r="D65" t="s">
-        <v>25</v>
-      </c>
-      <c r="E65" t="s">
-        <v>57</v>
-      </c>
-      <c r="F65" t="s">
-        <v>138</v>
-      </c>
-      <c r="G65" t="s">
-        <v>8</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D66" t="s">
         <v>25</v>
@@ -3191,18 +3196,18 @@
         <v>57</v>
       </c>
       <c r="F66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G66" t="s">
-        <v>142</v>
+        <v>8</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D67" t="s">
         <v>25</v>
@@ -3211,3062 +3216,3080 @@
         <v>57</v>
       </c>
       <c r="F67" t="s">
+        <v>139</v>
+      </c>
+      <c r="G67" t="s">
+        <v>141</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>383</v>
+      </c>
+      <c r="D68" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" t="s">
+        <v>57</v>
+      </c>
+      <c r="F68" t="s">
         <v>58</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G68" t="s">
         <v>8</v>
       </c>
-      <c r="I67" s="4" t="s">
+      <c r="I68" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B69" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="F70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I70" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
-        <v>387</v>
-      </c>
-      <c r="D70" t="s">
-        <v>25</v>
-      </c>
-      <c r="E70" t="s">
-        <v>57</v>
-      </c>
-      <c r="F70" t="s">
-        <v>58</v>
-      </c>
-      <c r="G70" t="s">
-        <v>8</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E71" t="s">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="F71" t="s">
-        <v>149</v>
+        <v>58</v>
+      </c>
+      <c r="G71" t="s">
+        <v>8</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D72" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E72" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F72" t="s">
-        <v>152</v>
-      </c>
-      <c r="G72" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D73" t="s">
         <v>25</v>
       </c>
       <c r="E73" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F73" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G73" t="s">
         <v>16</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D74" t="s">
         <v>25</v>
       </c>
       <c r="E74" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F74" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G74" t="s">
         <v>16</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D75" t="s">
         <v>25</v>
       </c>
       <c r="E75" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F75" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G75" t="s">
         <v>16</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D76" t="s">
         <v>25</v>
       </c>
       <c r="E76" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F76" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G76" t="s">
         <v>16</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D77" t="s">
         <v>25</v>
       </c>
       <c r="E77" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F77" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G77" t="s">
         <v>16</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D78" t="s">
         <v>25</v>
       </c>
       <c r="E78" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F78" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G78" t="s">
         <v>16</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D79" t="s">
         <v>25</v>
       </c>
       <c r="E79" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F79" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G79" t="s">
         <v>16</v>
       </c>
       <c r="I79" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>383</v>
+      </c>
+      <c r="D80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" t="s">
+        <v>171</v>
+      </c>
+      <c r="F80" t="s">
+        <v>172</v>
+      </c>
+      <c r="G80" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D80" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="F82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I82" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
-        <v>387</v>
-      </c>
-      <c r="D82" t="s">
-        <v>25</v>
-      </c>
-      <c r="E82" t="s">
-        <v>57</v>
-      </c>
-      <c r="F82" t="s">
-        <v>58</v>
-      </c>
-      <c r="G82" t="s">
-        <v>8</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D83" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E83" t="s">
-        <v>178</v>
+        <v>57</v>
       </c>
       <c r="F83" t="s">
-        <v>179</v>
+        <v>58</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
-      </c>
-      <c r="H83">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>180</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D84" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" t="s">
+        <v>177</v>
+      </c>
+      <c r="F84" t="s">
+        <v>178</v>
+      </c>
+      <c r="G84" t="s">
+        <v>34</v>
+      </c>
+      <c r="H84">
+        <v>24</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>383</v>
+      </c>
+      <c r="D85" t="s">
         <v>25</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E85" t="s">
         <v>57</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F85" t="s">
         <v>58</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G85" t="s">
         <v>8</v>
       </c>
-      <c r="I84" s="4" t="s">
+      <c r="I85" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D85" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F86" s="2" t="s">
+      <c r="F87" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I86" s="3"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
-        <v>387</v>
-      </c>
-      <c r="D87" t="s">
-        <v>25</v>
-      </c>
-      <c r="E87" t="s">
-        <v>57</v>
-      </c>
-      <c r="F87" t="s">
-        <v>58</v>
-      </c>
-      <c r="G87" t="s">
-        <v>16</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="G87" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I87" s="3"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D88" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" t="s">
+        <v>57</v>
+      </c>
+      <c r="F88" t="s">
+        <v>58</v>
+      </c>
+      <c r="G88" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>382</v>
+      </c>
+      <c r="D89" t="s">
         <v>9</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E89" t="s">
         <v>44</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F89" t="s">
         <v>44</v>
       </c>
-      <c r="G88" t="s">
-        <v>34</v>
-      </c>
-      <c r="I88" s="4" t="s">
+      <c r="G89" t="s">
+        <v>34</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>382</v>
+      </c>
+      <c r="D90" t="s">
+        <v>50</v>
+      </c>
+      <c r="E90" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="89" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
-        <v>387</v>
-      </c>
-      <c r="D89" t="s">
-        <v>50</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="F90" t="s">
         <v>185</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G90" t="s">
+        <v>34</v>
+      </c>
+      <c r="I90" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="G89" t="s">
-        <v>34</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C90" t="s">
-        <v>387</v>
-      </c>
-      <c r="D90" t="s">
-        <v>5</v>
-      </c>
-      <c r="E90" t="s">
-        <v>188</v>
-      </c>
-      <c r="F90" t="s">
-        <v>189</v>
-      </c>
-      <c r="G90" t="s">
-        <v>34</v>
-      </c>
-      <c r="H90">
-        <v>10</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D91" t="s">
         <v>5</v>
       </c>
       <c r="E91" t="s">
+        <v>187</v>
+      </c>
+      <c r="F91" t="s">
+        <v>188</v>
+      </c>
+      <c r="G91" t="s">
+        <v>34</v>
+      </c>
+      <c r="H91">
+        <v>10</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>383</v>
+      </c>
+      <c r="D92" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" t="s">
+        <v>190</v>
+      </c>
+      <c r="F92" t="s">
         <v>191</v>
-      </c>
-      <c r="F91" t="s">
-        <v>192</v>
-      </c>
-      <c r="G91" t="s">
-        <v>16</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C92" t="s">
-        <v>388</v>
-      </c>
-      <c r="D92" t="s">
-        <v>50</v>
-      </c>
-      <c r="E92" t="s">
-        <v>194</v>
-      </c>
-      <c r="F92" t="s">
-        <v>195</v>
       </c>
       <c r="G92" t="s">
         <v>16</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D93" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E93" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="F93" t="s">
-        <v>58</v>
+        <v>194</v>
       </c>
       <c r="G93" t="s">
         <v>16</v>
       </c>
       <c r="I93" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>383</v>
+      </c>
+      <c r="D94" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" t="s">
+        <v>57</v>
+      </c>
+      <c r="F94" t="s">
+        <v>58</v>
+      </c>
+      <c r="G94" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D94" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F95" s="2" t="s">
+      <c r="F96" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I95" s="3"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
-        <v>387</v>
-      </c>
-      <c r="D96" t="s">
-        <v>25</v>
-      </c>
-      <c r="E96" t="s">
-        <v>57</v>
-      </c>
-      <c r="F96" t="s">
-        <v>58</v>
-      </c>
-      <c r="G96" t="s">
-        <v>8</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="G96" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I96" s="3"/>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E97" t="s">
-        <v>200</v>
+        <v>57</v>
       </c>
       <c r="F97" t="s">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>201</v>
+        <v>59</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D98" t="s">
         <v>9</v>
       </c>
       <c r="E98" t="s">
+        <v>199</v>
+      </c>
+      <c r="F98" t="s">
+        <v>199</v>
+      </c>
+      <c r="G98" t="s">
+        <v>34</v>
+      </c>
+      <c r="I98" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="F98" t="s">
-        <v>202</v>
-      </c>
-      <c r="G98" t="s">
-        <v>34</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D99" t="s">
-        <v>204</v>
+        <v>9</v>
       </c>
       <c r="E99" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F99" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G99" t="s">
         <v>34</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D100" t="s">
+        <v>203</v>
+      </c>
+      <c r="E100" t="s">
+        <v>204</v>
+      </c>
+      <c r="F100" t="s">
+        <v>205</v>
+      </c>
+      <c r="G100" t="s">
+        <v>34</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>382</v>
+      </c>
+      <c r="D101" t="s">
         <v>50</v>
       </c>
-      <c r="E100" t="s">
-        <v>188</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="E101" t="s">
+        <v>187</v>
+      </c>
+      <c r="F101" t="s">
+        <v>207</v>
+      </c>
+      <c r="G101" t="s">
+        <v>34</v>
+      </c>
+      <c r="H101" t="s">
+        <v>209</v>
+      </c>
+      <c r="I101" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="G100" t="s">
-        <v>34</v>
-      </c>
-      <c r="H100" t="s">
+    </row>
+    <row r="102" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>382</v>
+      </c>
+      <c r="D102" t="s">
         <v>210</v>
       </c>
-      <c r="I100" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C101" t="s">
-        <v>387</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="E102" t="s">
         <v>211</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F102" t="s">
         <v>212</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G102" t="s">
+        <v>34</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I102" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="G101" t="s">
-        <v>34</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="I101" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C102" t="s">
-        <v>388</v>
-      </c>
-      <c r="D102" t="s">
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>383</v>
+      </c>
+      <c r="D103" t="s">
         <v>5</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E103" t="s">
+        <v>190</v>
+      </c>
+      <c r="F103" t="s">
         <v>191</v>
-      </c>
-      <c r="F102" t="s">
-        <v>192</v>
-      </c>
-      <c r="G102" t="s">
-        <v>16</v>
-      </c>
-      <c r="I102" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C103" t="s">
-        <v>388</v>
-      </c>
-      <c r="D103" t="s">
-        <v>204</v>
-      </c>
-      <c r="E103" t="s">
-        <v>194</v>
-      </c>
-      <c r="F103" t="s">
-        <v>195</v>
       </c>
       <c r="G103" t="s">
         <v>16</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D104" t="s">
-        <v>25</v>
+        <v>203</v>
       </c>
       <c r="E104" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="F104" t="s">
-        <v>58</v>
+        <v>194</v>
       </c>
       <c r="G104" t="s">
         <v>16</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>383</v>
+      </c>
       <c r="D105" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" t="s">
+        <v>57</v>
+      </c>
+      <c r="F105" t="s">
+        <v>58</v>
+      </c>
+      <c r="G105" t="s">
+        <v>16</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="2:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B106" s="2" t="s">
+    <row r="107" spans="2:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B107" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="F107" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I107" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C107" t="s">
-        <v>387</v>
-      </c>
-      <c r="D107" t="s">
-        <v>25</v>
-      </c>
-      <c r="E107" t="s">
-        <v>57</v>
-      </c>
-      <c r="F107" t="s">
-        <v>58</v>
-      </c>
-      <c r="G107" t="s">
-        <v>8</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F108" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D109" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E109" t="s">
-        <v>222</v>
+        <v>43</v>
       </c>
       <c r="F109" t="s">
-        <v>223</v>
+        <v>44</v>
       </c>
       <c r="G109" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D110" t="s">
         <v>25</v>
       </c>
       <c r="E110" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F110" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G110" t="s">
         <v>8</v>
       </c>
       <c r="I110" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>383</v>
+      </c>
+      <c r="D111" t="s">
+        <v>25</v>
+      </c>
+      <c r="E111" t="s">
+        <v>224</v>
+      </c>
+      <c r="F111" t="s">
+        <v>225</v>
+      </c>
+      <c r="G111" t="s">
+        <v>8</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D111" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="E113" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="F113" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I113" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C113" t="s">
-        <v>387</v>
-      </c>
-      <c r="D113" t="s">
-        <v>25</v>
-      </c>
-      <c r="E113" t="s">
-        <v>57</v>
-      </c>
-      <c r="F113" t="s">
-        <v>58</v>
-      </c>
-      <c r="G113" t="s">
-        <v>8</v>
-      </c>
-      <c r="I113" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D114" t="s">
-        <v>231</v>
+        <v>25</v>
       </c>
       <c r="E114" t="s">
-        <v>232</v>
+        <v>57</v>
       </c>
       <c r="F114" t="s">
-        <v>233</v>
+        <v>58</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>234</v>
+        <v>59</v>
       </c>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D115" t="s">
+        <v>230</v>
+      </c>
+      <c r="E115" t="s">
+        <v>231</v>
+      </c>
+      <c r="F115" t="s">
+        <v>232</v>
+      </c>
+      <c r="G115" t="s">
+        <v>34</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>383</v>
+      </c>
+      <c r="D116" t="s">
         <v>25</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E116" t="s">
         <v>57</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F116" t="s">
         <v>58</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G116" t="s">
         <v>8</v>
       </c>
-      <c r="I115" s="4" t="s">
+      <c r="I116" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D116" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="2" t="s">
+      <c r="E118" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="F118" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I118" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C118" t="s">
-        <v>387</v>
-      </c>
-      <c r="D118" t="s">
-        <v>25</v>
-      </c>
-      <c r="E118" t="s">
-        <v>57</v>
-      </c>
-      <c r="F118" t="s">
-        <v>58</v>
-      </c>
-      <c r="G118" t="s">
-        <v>8</v>
-      </c>
-      <c r="I118" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F119" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>239</v>
+        <v>59</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D120" t="s">
-        <v>211</v>
+        <v>9</v>
       </c>
       <c r="E120" t="s">
-        <v>240</v>
+        <v>44</v>
       </c>
       <c r="F120" t="s">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="G120" t="s">
         <v>34</v>
       </c>
-      <c r="H120" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="I120" s="4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D121" t="s">
+        <v>210</v>
+      </c>
+      <c r="E121" t="s">
+        <v>239</v>
+      </c>
+      <c r="F121" t="s">
+        <v>240</v>
+      </c>
+      <c r="G121" t="s">
+        <v>34</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>383</v>
+      </c>
+      <c r="D122" t="s">
         <v>25</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E122" t="s">
         <v>57</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F122" t="s">
         <v>58</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G122" t="s">
         <v>8</v>
       </c>
-      <c r="I121" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D122" t="s">
+      <c r="I122" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="2" t="s">
+    <row r="124" spans="2:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B124" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F123" s="2" t="s">
+      <c r="F124" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G123" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C124" t="s">
-        <v>387</v>
-      </c>
-      <c r="D124" t="s">
-        <v>25</v>
-      </c>
-      <c r="E124" t="s">
-        <v>57</v>
-      </c>
-      <c r="F124" t="s">
-        <v>58</v>
-      </c>
-      <c r="G124" t="s">
-        <v>8</v>
-      </c>
-      <c r="I124" s="4" t="s">
-        <v>59</v>
+      <c r="G124" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E125" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F125" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D126" t="s">
         <v>9</v>
       </c>
       <c r="E126" t="s">
+        <v>44</v>
+      </c>
+      <c r="F126" t="s">
+        <v>44</v>
+      </c>
+      <c r="G126" t="s">
+        <v>34</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>382</v>
+      </c>
+      <c r="D127" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" t="s">
+        <v>245</v>
+      </c>
+      <c r="F127" t="s">
+        <v>246</v>
+      </c>
+      <c r="G127" t="s">
+        <v>34</v>
+      </c>
+      <c r="I127" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="F126" t="s">
-        <v>248</v>
-      </c>
-      <c r="G126" t="s">
-        <v>34</v>
-      </c>
-      <c r="I126" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C127" t="s">
-        <v>387</v>
-      </c>
-      <c r="D127" t="s">
-        <v>12</v>
-      </c>
-      <c r="E127" t="s">
-        <v>47</v>
-      </c>
-      <c r="F127" t="s">
-        <v>48</v>
-      </c>
-      <c r="G127" t="s">
-        <v>34</v>
-      </c>
-      <c r="I127" s="4" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D128" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" t="s">
+        <v>47</v>
+      </c>
+      <c r="F128" t="s">
+        <v>48</v>
+      </c>
+      <c r="G128" t="s">
+        <v>34</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>383</v>
+      </c>
+      <c r="D129" t="s">
         <v>25</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E129" t="s">
         <v>57</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F129" t="s">
         <v>58</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G129" t="s">
         <v>8</v>
       </c>
-      <c r="I128" s="4" t="s">
+      <c r="I129" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A130" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D130" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D129" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="2" t="s">
+      <c r="F131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="I131" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>382</v>
+      </c>
+      <c r="D132" t="s">
+        <v>25</v>
+      </c>
+      <c r="E132" t="s">
+        <v>57</v>
+      </c>
+      <c r="F132" t="s">
+        <v>58</v>
+      </c>
+      <c r="G132" t="s">
+        <v>8</v>
+      </c>
+      <c r="I132" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="F130" s="2" t="s">
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>382</v>
+      </c>
+      <c r="D133" t="s">
+        <v>254</v>
+      </c>
+      <c r="E133" t="s">
+        <v>255</v>
+      </c>
+      <c r="F133" t="s">
+        <v>256</v>
+      </c>
+      <c r="G133" t="s">
+        <v>34</v>
+      </c>
+      <c r="H133" t="s">
+        <v>258</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>382</v>
+      </c>
+      <c r="D134" t="s">
+        <v>203</v>
+      </c>
+      <c r="E134" t="s">
+        <v>259</v>
+      </c>
+      <c r="F134" t="s">
+        <v>260</v>
+      </c>
+      <c r="G134" t="s">
+        <v>34</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>382</v>
+      </c>
+      <c r="D135" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" t="s">
+        <v>262</v>
+      </c>
+      <c r="F135" t="s">
+        <v>263</v>
+      </c>
+      <c r="G135" t="s">
+        <v>34</v>
+      </c>
+      <c r="H135">
         <v>3</v>
       </c>
-      <c r="G130" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="I130" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C131" t="s">
-        <v>387</v>
-      </c>
-      <c r="D131" t="s">
-        <v>25</v>
-      </c>
-      <c r="E131" t="s">
-        <v>57</v>
-      </c>
-      <c r="F131" t="s">
-        <v>58</v>
-      </c>
-      <c r="G131" t="s">
-        <v>8</v>
-      </c>
-      <c r="I131" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C132" t="s">
-        <v>387</v>
-      </c>
-      <c r="D132" t="s">
-        <v>257</v>
-      </c>
-      <c r="E132" t="s">
-        <v>258</v>
-      </c>
-      <c r="F132" t="s">
-        <v>259</v>
-      </c>
-      <c r="G132" t="s">
-        <v>34</v>
-      </c>
-      <c r="H132" t="s">
-        <v>261</v>
-      </c>
-      <c r="I132" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C133" t="s">
-        <v>387</v>
-      </c>
-      <c r="D133" t="s">
-        <v>204</v>
-      </c>
-      <c r="E133" t="s">
-        <v>262</v>
-      </c>
-      <c r="F133" t="s">
-        <v>263</v>
-      </c>
-      <c r="G133" t="s">
-        <v>34</v>
-      </c>
-      <c r="I133" s="4" t="s">
+      <c r="I135" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C134" t="s">
-        <v>387</v>
-      </c>
-      <c r="D134" t="s">
-        <v>12</v>
-      </c>
-      <c r="E134" t="s">
-        <v>265</v>
-      </c>
-      <c r="F134" t="s">
-        <v>266</v>
-      </c>
-      <c r="G134" t="s">
-        <v>34</v>
-      </c>
-      <c r="H134">
-        <v>3</v>
-      </c>
-      <c r="I134" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C135" t="s">
-        <v>387</v>
-      </c>
-      <c r="D135" t="s">
-        <v>9</v>
-      </c>
-      <c r="E135" t="s">
-        <v>268</v>
-      </c>
-      <c r="F135" t="s">
-        <v>269</v>
-      </c>
-      <c r="G135" t="s">
-        <v>34</v>
-      </c>
-      <c r="H135" t="s">
-        <v>271</v>
-      </c>
-      <c r="I135" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D136" t="s">
         <v>9</v>
       </c>
       <c r="E136" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F136" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G136" t="s">
         <v>34</v>
       </c>
       <c r="H136" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C137" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D137" t="s">
         <v>9</v>
       </c>
       <c r="E137" t="s">
+        <v>269</v>
+      </c>
+      <c r="F137" t="s">
+        <v>270</v>
+      </c>
+      <c r="G137" t="s">
+        <v>34</v>
+      </c>
+      <c r="H137" t="s">
+        <v>272</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>382</v>
+      </c>
+      <c r="D138" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" t="s">
+        <v>273</v>
+      </c>
+      <c r="F138" t="s">
+        <v>274</v>
+      </c>
+      <c r="G138" t="s">
+        <v>34</v>
+      </c>
+      <c r="H138" t="s">
         <v>276</v>
       </c>
-      <c r="F137" t="s">
+      <c r="I138" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>382</v>
+      </c>
+      <c r="D139" t="s">
+        <v>210</v>
+      </c>
+      <c r="E139" t="s">
         <v>277</v>
       </c>
-      <c r="G137" t="s">
-        <v>34</v>
-      </c>
-      <c r="H137" t="s">
+      <c r="F139" t="s">
+        <v>278</v>
+      </c>
+      <c r="G139" t="s">
+        <v>34</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I139" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="I137" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C138" t="s">
-        <v>387</v>
-      </c>
-      <c r="D138" t="s">
-        <v>211</v>
-      </c>
-      <c r="E138" t="s">
-        <v>280</v>
-      </c>
-      <c r="F138" t="s">
-        <v>281</v>
-      </c>
-      <c r="G138" t="s">
-        <v>34</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="I138" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C139" t="s">
-        <v>388</v>
-      </c>
-      <c r="D139" t="s">
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>383</v>
+      </c>
+      <c r="D140" t="s">
         <v>25</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E140" t="s">
         <v>57</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F140" t="s">
         <v>58</v>
-      </c>
-      <c r="G139" t="s">
-        <v>8</v>
-      </c>
-      <c r="I139" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C140" t="s">
-        <v>388</v>
-      </c>
-      <c r="D140" t="s">
-        <v>21</v>
-      </c>
-      <c r="E140" t="s">
-        <v>284</v>
-      </c>
-      <c r="F140" t="s">
-        <v>285</v>
       </c>
       <c r="G140" t="s">
         <v>8</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D141" t="s">
-        <v>287</v>
+        <v>21</v>
       </c>
       <c r="E141" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F141" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G141" t="s">
         <v>8</v>
       </c>
       <c r="I141" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>383</v>
+      </c>
+      <c r="D142" t="s">
+        <v>284</v>
+      </c>
+      <c r="E142" t="s">
+        <v>285</v>
+      </c>
+      <c r="F142" t="s">
+        <v>286</v>
+      </c>
+      <c r="G142" t="s">
+        <v>8</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>383</v>
+      </c>
+      <c r="D143" t="s">
+        <v>17</v>
+      </c>
+      <c r="E143" t="s">
+        <v>95</v>
+      </c>
+      <c r="F143" t="s">
+        <v>288</v>
+      </c>
+      <c r="G143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>383</v>
+      </c>
+      <c r="D144" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C142" t="s">
+      <c r="E144" t="s">
+        <v>291</v>
+      </c>
+      <c r="F144" t="s">
+        <v>292</v>
+      </c>
+      <c r="G144" t="s">
+        <v>34</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>383</v>
+      </c>
+      <c r="D145" t="s">
+        <v>294</v>
+      </c>
+      <c r="E145" t="s">
+        <v>295</v>
+      </c>
+      <c r="F145" t="s">
+        <v>296</v>
+      </c>
+      <c r="G145" t="s">
+        <v>34</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I147" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="D142" t="s">
-        <v>17</v>
-      </c>
-      <c r="E142" t="s">
-        <v>96</v>
-      </c>
-      <c r="F142" t="s">
-        <v>291</v>
-      </c>
-      <c r="G142" t="s">
-        <v>34</v>
-      </c>
-      <c r="I142" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C143" t="s">
-        <v>388</v>
-      </c>
-      <c r="D143" t="s">
-        <v>293</v>
-      </c>
-      <c r="E143" t="s">
-        <v>294</v>
-      </c>
-      <c r="F143" t="s">
-        <v>295</v>
-      </c>
-      <c r="G143" t="s">
-        <v>34</v>
-      </c>
-      <c r="I143" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C144" t="s">
-        <v>388</v>
-      </c>
-      <c r="D144" t="s">
-        <v>297</v>
-      </c>
-      <c r="E144" t="s">
-        <v>298</v>
-      </c>
-      <c r="F144" t="s">
-        <v>299</v>
-      </c>
-      <c r="G144" t="s">
-        <v>34</v>
-      </c>
-      <c r="I144" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D145" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="I146" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C147" t="s">
-        <v>387</v>
-      </c>
-      <c r="D147" t="s">
-        <v>25</v>
-      </c>
-      <c r="E147" t="s">
-        <v>57</v>
-      </c>
-      <c r="F147" t="s">
-        <v>58</v>
-      </c>
-      <c r="G147" t="s">
-        <v>8</v>
-      </c>
-      <c r="I147" s="4" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D148" t="s">
-        <v>257</v>
+        <v>25</v>
       </c>
       <c r="E148" t="s">
-        <v>258</v>
+        <v>57</v>
       </c>
       <c r="F148" t="s">
-        <v>259</v>
+        <v>58</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
-      </c>
-      <c r="H148" t="s">
-        <v>261</v>
+        <v>8</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D149" t="s">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="E149" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F149" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G149" t="s">
         <v>34</v>
       </c>
+      <c r="H149" t="s">
+        <v>258</v>
+      </c>
       <c r="I149" s="4" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D150" t="s">
-        <v>25</v>
+        <v>203</v>
       </c>
       <c r="E150" t="s">
-        <v>57</v>
+        <v>259</v>
       </c>
       <c r="F150" t="s">
-        <v>58</v>
+        <v>260</v>
       </c>
       <c r="G150" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I150" s="4" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D151" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E151" t="s">
-        <v>284</v>
+        <v>57</v>
       </c>
       <c r="F151" t="s">
-        <v>285</v>
+        <v>58</v>
       </c>
       <c r="G151" t="s">
         <v>8</v>
       </c>
       <c r="I151" s="4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D152" t="s">
-        <v>305</v>
+        <v>21</v>
       </c>
       <c r="E152" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="F152" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="G152" t="s">
         <v>8</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C153" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D153" t="s">
+        <v>301</v>
+      </c>
+      <c r="E153" t="s">
+        <v>302</v>
+      </c>
+      <c r="F153" t="s">
+        <v>303</v>
+      </c>
+      <c r="G153" t="s">
+        <v>8</v>
+      </c>
+      <c r="I153" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>383</v>
+      </c>
+      <c r="D154" t="s">
+        <v>290</v>
+      </c>
+      <c r="E154" t="s">
+        <v>291</v>
+      </c>
+      <c r="F154" t="s">
+        <v>292</v>
+      </c>
+      <c r="G154" t="s">
+        <v>34</v>
+      </c>
+      <c r="I154" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="E153" t="s">
-        <v>294</v>
-      </c>
-      <c r="F153" t="s">
-        <v>295</v>
-      </c>
-      <c r="G153" t="s">
-        <v>34</v>
-      </c>
-      <c r="I153" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="155" spans="2:9" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B155" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F155" s="2" t="s">
+    </row>
+    <row r="156" spans="2:9" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B156" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F156" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G155" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="I155" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C156" t="s">
-        <v>387</v>
-      </c>
-      <c r="D156" t="s">
-        <v>25</v>
-      </c>
-      <c r="E156" t="s">
-        <v>57</v>
-      </c>
-      <c r="F156" t="s">
-        <v>58</v>
-      </c>
-      <c r="G156" t="s">
-        <v>16</v>
-      </c>
-      <c r="I156" s="4" t="s">
-        <v>256</v>
+      <c r="G156" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C157" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D157" t="s">
-        <v>257</v>
+        <v>25</v>
       </c>
       <c r="E157" t="s">
-        <v>258</v>
+        <v>57</v>
       </c>
       <c r="F157" t="s">
-        <v>259</v>
+        <v>58</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
-      </c>
-      <c r="H157" t="s">
-        <v>261</v>
+        <v>16</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D158" t="s">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="E158" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F158" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G158" t="s">
         <v>34</v>
       </c>
+      <c r="H158" t="s">
+        <v>258</v>
+      </c>
       <c r="I158" s="4" t="s">
-        <v>312</v>
+        <v>257</v>
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C159" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D159" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>260</v>
       </c>
       <c r="G159" t="s">
         <v>34</v>
       </c>
-      <c r="H159">
-        <v>1</v>
-      </c>
       <c r="I159" s="4" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C160" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D160" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E160" t="s">
-        <v>57</v>
+        <v>308</v>
       </c>
       <c r="F160" t="s">
-        <v>58</v>
+        <v>309</v>
       </c>
       <c r="G160" t="s">
-        <v>16</v>
+        <v>34</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
       </c>
       <c r="I160" s="4" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C161" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D161" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E161" t="s">
-        <v>284</v>
+        <v>57</v>
       </c>
       <c r="F161" t="s">
-        <v>285</v>
+        <v>58</v>
       </c>
       <c r="G161" t="s">
         <v>16</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C162" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D162" t="s">
-        <v>305</v>
+        <v>21</v>
       </c>
       <c r="E162" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="F162" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="G162" t="s">
         <v>16</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C163" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D163" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="G163" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I163" s="4" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D164" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E164" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="F164" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="G164" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I164" s="4" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C165" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D165" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="E165" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F165" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G165" t="s">
         <v>34</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F167" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C166" t="s">
+        <v>383</v>
+      </c>
+      <c r="D166" t="s">
+        <v>301</v>
+      </c>
+      <c r="E166" t="s">
+        <v>295</v>
+      </c>
+      <c r="F166" t="s">
+        <v>296</v>
+      </c>
+      <c r="G166" t="s">
+        <v>34</v>
+      </c>
+      <c r="I166" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F168" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G167" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="I167" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C168" t="s">
-        <v>387</v>
-      </c>
-      <c r="D168" t="s">
-        <v>25</v>
-      </c>
-      <c r="E168" t="s">
-        <v>57</v>
-      </c>
-      <c r="F168" t="s">
-        <v>58</v>
-      </c>
-      <c r="G168" t="s">
-        <v>8</v>
-      </c>
-      <c r="I168" s="4" t="s">
-        <v>256</v>
+      <c r="G168" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C169" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D169" t="s">
+        <v>25</v>
+      </c>
+      <c r="E169" t="s">
+        <v>57</v>
+      </c>
+      <c r="F169" t="s">
+        <v>58</v>
+      </c>
+      <c r="G169" t="s">
+        <v>8</v>
+      </c>
+      <c r="I169" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C170" t="s">
+        <v>382</v>
+      </c>
+      <c r="D170" t="s">
         <v>9</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E170" t="s">
         <v>44</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F170" t="s">
         <v>44</v>
       </c>
-      <c r="G169" t="s">
-        <v>34</v>
-      </c>
-      <c r="I169" s="4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C170" t="s">
-        <v>387</v>
-      </c>
-      <c r="D170" t="s">
+      <c r="G170" t="s">
+        <v>34</v>
+      </c>
+      <c r="I170" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C171" t="s">
+        <v>382</v>
+      </c>
+      <c r="D171" t="s">
         <v>50</v>
       </c>
-      <c r="E170" t="s">
-        <v>325</v>
-      </c>
-      <c r="F170" t="s">
-        <v>326</v>
-      </c>
-      <c r="G170" t="s">
-        <v>34</v>
-      </c>
-      <c r="I170" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C171" t="s">
-        <v>387</v>
-      </c>
-      <c r="D171" t="s">
-        <v>257</v>
-      </c>
       <c r="E171" t="s">
-        <v>258</v>
+        <v>320</v>
       </c>
       <c r="F171" t="s">
-        <v>259</v>
+        <v>321</v>
       </c>
       <c r="G171" t="s">
         <v>34</v>
       </c>
-      <c r="H171" t="s">
-        <v>261</v>
-      </c>
       <c r="I171" s="4" t="s">
-        <v>260</v>
+        <v>322</v>
       </c>
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C172" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D172" t="s">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="E172" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F172" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G172" t="s">
         <v>34</v>
       </c>
+      <c r="H172" t="s">
+        <v>258</v>
+      </c>
       <c r="I172" s="4" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C173" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D173" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="E173" t="s">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="F173" t="s">
-        <v>314</v>
+        <v>260</v>
       </c>
       <c r="G173" t="s">
         <v>34</v>
       </c>
-      <c r="H173">
-        <v>1</v>
-      </c>
       <c r="I173" s="4" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C174" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D174" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E174" t="s">
-        <v>57</v>
+        <v>308</v>
       </c>
       <c r="F174" t="s">
-        <v>58</v>
+        <v>309</v>
       </c>
       <c r="G174" t="s">
-        <v>8</v>
+        <v>34</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C175" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D175" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E175" t="s">
-        <v>284</v>
+        <v>57</v>
       </c>
       <c r="F175" t="s">
-        <v>285</v>
+        <v>58</v>
       </c>
       <c r="G175" t="s">
         <v>8</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="176" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C176" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D176" t="s">
-        <v>305</v>
+        <v>21</v>
       </c>
       <c r="E176" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="F176" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="G176" t="s">
         <v>8</v>
       </c>
       <c r="I176" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="178" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F178" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C177" t="s">
+        <v>383</v>
+      </c>
+      <c r="D177" t="s">
+        <v>301</v>
+      </c>
+      <c r="E177" t="s">
+        <v>302</v>
+      </c>
+      <c r="F177" t="s">
+        <v>303</v>
+      </c>
+      <c r="G177" t="s">
+        <v>8</v>
+      </c>
+      <c r="I177" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F179" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G178" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="I178" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C179" t="s">
-        <v>387</v>
-      </c>
-      <c r="D179" t="s">
-        <v>25</v>
-      </c>
-      <c r="E179" t="s">
-        <v>57</v>
-      </c>
-      <c r="F179" t="s">
-        <v>58</v>
-      </c>
-      <c r="G179" t="s">
-        <v>8</v>
-      </c>
-      <c r="I179" s="4" t="s">
-        <v>256</v>
+      <c r="G179" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C180" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="F180" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="G180" t="s">
         <v>8</v>
       </c>
       <c r="I180" s="4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="181" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C181" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D181" t="s">
+        <v>9</v>
+      </c>
+      <c r="E181" t="s">
+        <v>10</v>
+      </c>
+      <c r="F181" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" t="s">
+        <v>8</v>
+      </c>
+      <c r="I181" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C182" t="s">
+        <v>382</v>
+      </c>
+      <c r="D182" t="s">
         <v>50</v>
       </c>
-      <c r="E181" t="s">
-        <v>325</v>
-      </c>
-      <c r="F181" t="s">
-        <v>326</v>
-      </c>
-      <c r="G181" t="s">
-        <v>34</v>
-      </c>
-      <c r="I181" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C182" t="s">
-        <v>387</v>
-      </c>
-      <c r="D182" t="s">
-        <v>257</v>
-      </c>
       <c r="E182" t="s">
-        <v>258</v>
+        <v>320</v>
       </c>
       <c r="F182" t="s">
-        <v>259</v>
+        <v>321</v>
       </c>
       <c r="G182" t="s">
         <v>34</v>
       </c>
-      <c r="H182" t="s">
-        <v>261</v>
-      </c>
       <c r="I182" s="4" t="s">
-        <v>260</v>
+        <v>328</v>
       </c>
     </row>
     <row r="183" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C183" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D183" t="s">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="E183" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F183" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G183" t="s">
         <v>34</v>
       </c>
+      <c r="H183" t="s">
+        <v>258</v>
+      </c>
       <c r="I183" s="4" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C184" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D184" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="E184" t="s">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="F184" t="s">
-        <v>314</v>
+        <v>260</v>
       </c>
       <c r="G184" t="s">
         <v>34</v>
       </c>
-      <c r="H184">
-        <v>1</v>
-      </c>
       <c r="I184" s="4" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C185" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D185" t="s">
+        <v>12</v>
+      </c>
+      <c r="E185" t="s">
+        <v>308</v>
+      </c>
+      <c r="F185" t="s">
+        <v>309</v>
+      </c>
+      <c r="G185" t="s">
+        <v>34</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C186" t="s">
+        <v>383</v>
+      </c>
+      <c r="D186" t="s">
         <v>25</v>
       </c>
-      <c r="E185" t="s">
+      <c r="E186" t="s">
         <v>57</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F186" t="s">
         <v>58</v>
-      </c>
-      <c r="G185" t="s">
-        <v>16</v>
-      </c>
-      <c r="I185" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="186" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C186" t="s">
-        <v>388</v>
-      </c>
-      <c r="D186" t="s">
-        <v>50</v>
-      </c>
-      <c r="E186" t="s">
-        <v>335</v>
-      </c>
-      <c r="F186" t="s">
-        <v>335</v>
       </c>
       <c r="G186" t="s">
         <v>16</v>
       </c>
       <c r="I186" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C187" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D187" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E187" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="F187" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="G187" t="s">
         <v>16</v>
       </c>
       <c r="I187" s="4" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C188" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D188" t="s">
         <v>21</v>
       </c>
       <c r="E188" t="s">
-        <v>337</v>
+        <v>281</v>
       </c>
       <c r="F188" t="s">
-        <v>338</v>
+        <v>282</v>
       </c>
       <c r="G188" t="s">
         <v>16</v>
       </c>
       <c r="I188" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="189" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C189" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D189" t="s">
-        <v>305</v>
+        <v>21</v>
       </c>
       <c r="E189" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="F189" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="G189" t="s">
         <v>16</v>
       </c>
       <c r="I189" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="191" spans="2:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B191" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F191" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C190" t="s">
+        <v>383</v>
+      </c>
+      <c r="D190" t="s">
+        <v>301</v>
+      </c>
+      <c r="E190" t="s">
+        <v>302</v>
+      </c>
+      <c r="F190" t="s">
+        <v>303</v>
+      </c>
+      <c r="G190" t="s">
+        <v>16</v>
+      </c>
+      <c r="I190" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B192" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F192" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G191" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="I191" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C192" t="s">
-        <v>387</v>
-      </c>
-      <c r="D192" t="s">
-        <v>25</v>
-      </c>
-      <c r="E192" t="s">
-        <v>57</v>
-      </c>
-      <c r="F192" t="s">
-        <v>58</v>
-      </c>
-      <c r="G192" t="s">
-        <v>16</v>
-      </c>
-      <c r="I192" s="4" t="s">
-        <v>256</v>
+      <c r="G192" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I192" s="3" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="193" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C193" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D193" t="s">
+        <v>25</v>
+      </c>
+      <c r="E193" t="s">
+        <v>57</v>
+      </c>
+      <c r="F193" t="s">
+        <v>58</v>
+      </c>
+      <c r="G193" t="s">
+        <v>16</v>
+      </c>
+      <c r="I193" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C194" t="s">
+        <v>382</v>
+      </c>
+      <c r="D194" t="s">
         <v>9</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E194" t="s">
         <v>44</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F194" t="s">
         <v>44</v>
       </c>
-      <c r="G193" t="s">
-        <v>34</v>
-      </c>
-      <c r="I193" s="4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="194" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C194" t="s">
-        <v>387</v>
-      </c>
-      <c r="D194" t="s">
+      <c r="G194" t="s">
+        <v>34</v>
+      </c>
+      <c r="I194" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
+        <v>382</v>
+      </c>
+      <c r="D195" t="s">
         <v>50</v>
       </c>
-      <c r="E194" t="s">
-        <v>325</v>
-      </c>
-      <c r="F194" t="s">
-        <v>326</v>
-      </c>
-      <c r="G194" t="s">
-        <v>34</v>
-      </c>
-      <c r="I194" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C195" t="s">
-        <v>387</v>
-      </c>
-      <c r="D195" t="s">
-        <v>257</v>
-      </c>
       <c r="E195" t="s">
-        <v>258</v>
+        <v>320</v>
       </c>
       <c r="F195" t="s">
-        <v>259</v>
+        <v>321</v>
       </c>
       <c r="G195" t="s">
         <v>34</v>
       </c>
-      <c r="H195" t="s">
-        <v>261</v>
-      </c>
       <c r="I195" s="4" t="s">
-        <v>260</v>
+        <v>322</v>
       </c>
     </row>
     <row r="196" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C196" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D196" t="s">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="E196" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F196" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G196" t="s">
         <v>34</v>
       </c>
+      <c r="H196" t="s">
+        <v>258</v>
+      </c>
       <c r="I196" s="4" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
     </row>
     <row r="197" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C197" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D197" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="E197" t="s">
-        <v>343</v>
+        <v>259</v>
       </c>
       <c r="F197" t="s">
-        <v>344</v>
+        <v>260</v>
       </c>
       <c r="G197" t="s">
         <v>34</v>
       </c>
-      <c r="H197">
-        <v>1</v>
-      </c>
       <c r="I197" s="4" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
     </row>
     <row r="198" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C198" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D198" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E198" t="s">
-        <v>57</v>
+        <v>338</v>
       </c>
       <c r="F198" t="s">
-        <v>58</v>
+        <v>339</v>
       </c>
       <c r="G198" t="s">
-        <v>16</v>
+        <v>34</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
       </c>
       <c r="I198" s="4" t="s">
-        <v>283</v>
+        <v>340</v>
       </c>
     </row>
     <row r="199" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C199" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D199" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E199" t="s">
-        <v>284</v>
+        <v>57</v>
       </c>
       <c r="F199" t="s">
-        <v>285</v>
+        <v>58</v>
       </c>
       <c r="G199" t="s">
         <v>16</v>
       </c>
       <c r="I199" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="200" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C200" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D200" t="s">
-        <v>305</v>
+        <v>21</v>
       </c>
       <c r="E200" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="F200" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="G200" t="s">
         <v>16</v>
       </c>
       <c r="I200" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="202" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="F202" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C201" t="s">
+        <v>383</v>
+      </c>
+      <c r="D201" t="s">
+        <v>301</v>
+      </c>
+      <c r="E201" t="s">
+        <v>302</v>
+      </c>
+      <c r="F201" t="s">
+        <v>303</v>
+      </c>
+      <c r="G201" t="s">
+        <v>16</v>
+      </c>
+      <c r="I201" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F203" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G202" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="I202" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C203" t="s">
-        <v>387</v>
-      </c>
-      <c r="D203" t="s">
-        <v>25</v>
-      </c>
-      <c r="E203" t="s">
-        <v>57</v>
-      </c>
-      <c r="F203" t="s">
-        <v>58</v>
-      </c>
-      <c r="G203" t="s">
-        <v>8</v>
-      </c>
-      <c r="I203" s="4" t="s">
-        <v>256</v>
+      <c r="G203" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I203" s="3" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="204" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C204" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E204" t="s">
-        <v>350</v>
+        <v>57</v>
       </c>
       <c r="F204" t="s">
-        <v>351</v>
+        <v>58</v>
       </c>
       <c r="G204" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I204" s="4" t="s">
-        <v>352</v>
+        <v>253</v>
       </c>
     </row>
     <row r="205" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C205" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D205" t="s">
         <v>9</v>
       </c>
       <c r="E205" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F205" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G205" t="s">
         <v>34</v>
       </c>
       <c r="I205" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="206" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C206" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D206" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="E206" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="F206" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="G206" t="s">
         <v>34</v>
       </c>
       <c r="I206" s="4" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="207" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C207" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D207" t="s">
         <v>50</v>
       </c>
       <c r="E207" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F207" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G207" t="s">
         <v>34</v>
       </c>
-      <c r="H207" t="s">
-        <v>362</v>
-      </c>
       <c r="I207" s="4" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="208" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C208" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D208" t="s">
-        <v>257</v>
+        <v>50</v>
       </c>
       <c r="E208" t="s">
+        <v>354</v>
+      </c>
+      <c r="F208" t="s">
+        <v>355</v>
+      </c>
+      <c r="G208" t="s">
+        <v>34</v>
+      </c>
+      <c r="H208" t="s">
+        <v>357</v>
+      </c>
+      <c r="I208" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C209" t="s">
+        <v>382</v>
+      </c>
+      <c r="D209" t="s">
+        <v>254</v>
+      </c>
+      <c r="E209" t="s">
+        <v>255</v>
+      </c>
+      <c r="F209" t="s">
+        <v>256</v>
+      </c>
+      <c r="G209" t="s">
+        <v>34</v>
+      </c>
+      <c r="H209" t="s">
         <v>258</v>
       </c>
-      <c r="F208" t="s">
-        <v>259</v>
-      </c>
-      <c r="G208" t="s">
-        <v>34</v>
-      </c>
-      <c r="H208" t="s">
-        <v>261</v>
-      </c>
-      <c r="I208" s="4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C209" t="s">
-        <v>387</v>
-      </c>
-      <c r="D209" t="s">
-        <v>50</v>
-      </c>
-      <c r="E209" t="s">
-        <v>364</v>
-      </c>
-      <c r="F209" t="s">
-        <v>266</v>
-      </c>
-      <c r="G209" t="s">
-        <v>34</v>
-      </c>
-      <c r="H209" t="s">
-        <v>366</v>
-      </c>
       <c r="I209" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="210" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C210" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D210" t="s">
         <v>50</v>
       </c>
       <c r="E210" t="s">
-        <v>188</v>
+        <v>359</v>
       </c>
       <c r="F210" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="G210" t="s">
         <v>34</v>
       </c>
       <c r="H210" t="s">
-        <v>210</v>
+        <v>361</v>
       </c>
       <c r="I210" s="4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C211" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D211" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E211" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="F211" t="s">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="G211" t="s">
-        <v>16</v>
+        <v>34</v>
+      </c>
+      <c r="H211" t="s">
+        <v>209</v>
       </c>
       <c r="I211" s="4" t="s">
-        <v>283</v>
+        <v>362</v>
       </c>
     </row>
     <row r="212" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C212" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D212" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E212" t="s">
-        <v>284</v>
+        <v>57</v>
       </c>
       <c r="F212" t="s">
-        <v>285</v>
+        <v>58</v>
       </c>
       <c r="G212" t="s">
         <v>16</v>
       </c>
       <c r="I212" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="213" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C213" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D213" t="s">
-        <v>287</v>
+        <v>21</v>
       </c>
       <c r="E213" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="F213" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="G213" t="s">
         <v>16</v>
       </c>
       <c r="I213" s="4" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="215" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F215" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C214" t="s">
+        <v>383</v>
+      </c>
+      <c r="D214" t="s">
+        <v>284</v>
+      </c>
+      <c r="E214" t="s">
+        <v>302</v>
+      </c>
+      <c r="F214" t="s">
+        <v>303</v>
+      </c>
+      <c r="G214" t="s">
+        <v>16</v>
+      </c>
+      <c r="I214" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F216" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G215" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="I215" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C216" t="s">
-        <v>387</v>
-      </c>
-      <c r="D216" t="s">
-        <v>25</v>
-      </c>
-      <c r="E216" t="s">
-        <v>57</v>
-      </c>
-      <c r="F216" t="s">
-        <v>58</v>
-      </c>
-      <c r="G216" t="s">
-        <v>8</v>
-      </c>
-      <c r="I216" s="4" t="s">
-        <v>256</v>
+      <c r="G216" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I216" s="3" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="217" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C217" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D217" t="s">
+        <v>25</v>
+      </c>
+      <c r="E217" t="s">
+        <v>57</v>
+      </c>
+      <c r="F217" t="s">
+        <v>58</v>
+      </c>
+      <c r="G217" t="s">
+        <v>8</v>
+      </c>
+      <c r="I217" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C218" t="s">
+        <v>382</v>
+      </c>
+      <c r="D218" t="s">
         <v>9</v>
       </c>
-      <c r="E217" t="s">
+      <c r="E218" t="s">
         <v>44</v>
       </c>
-      <c r="F217" t="s">
+      <c r="F218" t="s">
         <v>44</v>
       </c>
-      <c r="G217" t="s">
-        <v>34</v>
-      </c>
-      <c r="I217" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="218" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C218" t="s">
-        <v>387</v>
-      </c>
-      <c r="D218" t="s">
+      <c r="G218" t="s">
+        <v>34</v>
+      </c>
+      <c r="I218" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="219" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C219" t="s">
+        <v>382</v>
+      </c>
+      <c r="D219" t="s">
         <v>50</v>
       </c>
-      <c r="E218" t="s">
-        <v>356</v>
-      </c>
-      <c r="F218" t="s">
-        <v>357</v>
-      </c>
-      <c r="G218" t="s">
-        <v>34</v>
-      </c>
-      <c r="I218" s="4" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="219" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C219" t="s">
-        <v>387</v>
-      </c>
-      <c r="D219" t="s">
+      <c r="E219" t="s">
+        <v>351</v>
+      </c>
+      <c r="F219" t="s">
+        <v>352</v>
+      </c>
+      <c r="G219" t="s">
+        <v>34</v>
+      </c>
+      <c r="I219" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="220" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C220" t="s">
+        <v>382</v>
+      </c>
+      <c r="D220" t="s">
         <v>9</v>
       </c>
-      <c r="E219" t="s">
-        <v>148</v>
-      </c>
-      <c r="F219" t="s">
-        <v>373</v>
-      </c>
-      <c r="G219" t="s">
-        <v>34</v>
-      </c>
-      <c r="H219" t="s">
-        <v>383</v>
-      </c>
-      <c r="I219" s="4" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="220" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C220" t="s">
-        <v>387</v>
-      </c>
-      <c r="D220" t="s">
-        <v>257</v>
-      </c>
       <c r="E220" t="s">
+        <v>147</v>
+      </c>
+      <c r="F220" t="s">
+        <v>368</v>
+      </c>
+      <c r="G220" t="s">
+        <v>34</v>
+      </c>
+      <c r="H220" t="s">
+        <v>378</v>
+      </c>
+      <c r="I220" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="221" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C221" t="s">
+        <v>382</v>
+      </c>
+      <c r="D221" t="s">
+        <v>254</v>
+      </c>
+      <c r="E221" t="s">
+        <v>255</v>
+      </c>
+      <c r="F221" t="s">
+        <v>256</v>
+      </c>
+      <c r="G221" t="s">
+        <v>34</v>
+      </c>
+      <c r="H221" t="s">
         <v>258</v>
       </c>
-      <c r="F220" t="s">
-        <v>259</v>
-      </c>
-      <c r="G220" t="s">
-        <v>34</v>
-      </c>
-      <c r="H220" t="s">
-        <v>261</v>
-      </c>
-      <c r="I220" s="4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C221" t="s">
-        <v>387</v>
-      </c>
-      <c r="D221" t="s">
-        <v>50</v>
-      </c>
-      <c r="E221" t="s">
-        <v>364</v>
-      </c>
-      <c r="F221" t="s">
-        <v>266</v>
-      </c>
-      <c r="G221" t="s">
-        <v>34</v>
-      </c>
-      <c r="H221" t="s">
-        <v>366</v>
-      </c>
       <c r="I221" s="4" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="222" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C222" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D222" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E222" t="s">
-        <v>57</v>
+        <v>359</v>
       </c>
       <c r="F222" t="s">
-        <v>58</v>
+        <v>263</v>
       </c>
       <c r="G222" t="s">
-        <v>16</v>
+        <v>34</v>
+      </c>
+      <c r="H222" t="s">
+        <v>361</v>
       </c>
       <c r="I222" s="4" t="s">
-        <v>283</v>
+        <v>360</v>
       </c>
     </row>
     <row r="223" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C223" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D223" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E223" t="s">
-        <v>284</v>
+        <v>57</v>
       </c>
       <c r="F223" t="s">
-        <v>285</v>
+        <v>58</v>
       </c>
       <c r="G223" t="s">
         <v>16</v>
       </c>
       <c r="I223" s="4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="224" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C224" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D224" t="s">
+        <v>21</v>
+      </c>
+      <c r="E224" t="s">
+        <v>281</v>
+      </c>
+      <c r="F224" t="s">
+        <v>282</v>
+      </c>
+      <c r="G224" t="s">
+        <v>16</v>
+      </c>
+      <c r="I224" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C225" t="s">
+        <v>383</v>
+      </c>
+      <c r="D225" t="s">
+        <v>290</v>
+      </c>
+      <c r="E225" t="s">
+        <v>291</v>
+      </c>
+      <c r="F225" t="s">
+        <v>292</v>
+      </c>
+      <c r="G225" t="s">
+        <v>8</v>
+      </c>
+      <c r="I225" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="E224" t="s">
-        <v>294</v>
-      </c>
-      <c r="F224" t="s">
-        <v>295</v>
-      </c>
-      <c r="G224" t="s">
-        <v>8</v>
-      </c>
-      <c r="I224" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="226" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F226" s="2" t="s">
+    </row>
+    <row r="227" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F227" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G226" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="I226" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="227" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C227" t="s">
-        <v>387</v>
-      </c>
-      <c r="D227" t="s">
+      <c r="G227" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I227" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C228" t="s">
+        <v>382</v>
+      </c>
+      <c r="D228" t="s">
         <v>12</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E228" t="s">
         <v>13</v>
       </c>
-      <c r="F227" t="s">
+      <c r="F228" t="s">
         <v>14</v>
-      </c>
-      <c r="G227" t="s">
-        <v>8</v>
-      </c>
-      <c r="I227" s="4" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C228" t="s">
-        <v>387</v>
-      </c>
-      <c r="D228" t="s">
-        <v>17</v>
-      </c>
-      <c r="E228" t="s">
-        <v>96</v>
-      </c>
-      <c r="F228" t="s">
-        <v>291</v>
       </c>
       <c r="G228" t="s">
         <v>8</v>
       </c>
       <c r="I228" s="4" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C229" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D229" t="s">
-        <v>257</v>
+        <v>17</v>
       </c>
       <c r="E229" t="s">
-        <v>258</v>
+        <v>95</v>
       </c>
       <c r="F229" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="G229" t="s">
-        <v>34</v>
-      </c>
-      <c r="H229" t="s">
-        <v>261</v>
+        <v>8</v>
       </c>
       <c r="I229" s="4" t="s">
-        <v>260</v>
+        <v>374</v>
       </c>
     </row>
     <row r="230" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C230" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D230" t="s">
-        <v>50</v>
+        <v>254</v>
       </c>
       <c r="E230" t="s">
-        <v>364</v>
+        <v>255</v>
       </c>
       <c r="F230" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="G230" t="s">
         <v>34</v>
       </c>
       <c r="H230" t="s">
-        <v>366</v>
+        <v>258</v>
       </c>
       <c r="I230" s="4" t="s">
-        <v>365</v>
+        <v>257</v>
       </c>
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C231" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D231" t="s">
-        <v>287</v>
+        <v>50</v>
       </c>
       <c r="E231" t="s">
-        <v>306</v>
+        <v>359</v>
       </c>
       <c r="F231" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="G231" t="s">
-        <v>8</v>
+        <v>34</v>
+      </c>
+      <c r="H231" t="s">
+        <v>361</v>
       </c>
       <c r="I231" s="4" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
     </row>
     <row r="232" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C232" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D232" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="E232" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="F232" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="G232" t="s">
         <v>8</v>
       </c>
       <c r="I232" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C233" t="s">
+        <v>383</v>
+      </c>
       <c r="D233" t="s">
-        <v>382</v>
+        <v>290</v>
+      </c>
+      <c r="E233" t="s">
+        <v>291</v>
+      </c>
+      <c r="F233" t="s">
+        <v>292</v>
+      </c>
+      <c r="G233" t="s">
+        <v>8</v>
+      </c>
+      <c r="I233" s="4" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="234" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D234" t="s">
-        <v>27</v>
+        <v>377</v>
       </c>
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.25">
@@ -6316,6 +6339,11 @@
     </row>
     <row r="244" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D244" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="245" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D245" t="s">
         <v>27</v>
       </c>
     </row>
